--- a/biology/Mycologie/Caloboletus_polygonius/Caloboletus_polygonius.xlsx
+++ b/biology/Mycologie/Caloboletus_polygonius/Caloboletus_polygonius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet non-réticulé
-Caloboletus polygonius, le Bolet non-réticulé[1], est une espèce rare de champignons (Fungi) basidiomycètes non comestibles du genre Boletus dans la famille des Boletaceae. Cette espèce peut se résumer comme un Caloboletus calopus sans réseau, au pied ponctué et généralement moins charnu.
+Caloboletus polygonius, le Bolet non-réticulé, est une espèce rare de champignons (Fungi) basidiomycètes non comestibles du genre Boletus dans la famille des Boletaceae. Cette espèce peut se résumer comme un Caloboletus calopus sans réseau, au pied ponctué et généralement moins charnu.
 </t>
         </is>
       </c>
@@ -512,57 +524,54 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Caloboletus polygonius (A.E.Hills &amp; Vassiliades) Vizzini[2]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus polygonius A.E.Hills &amp; Vassiliades[2].
-Synonymes
-Caloboletus polygonius a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Caloboletus polygonius (A.E.Hills &amp; Vassiliades) Vizzini. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus polygonius A.E.Hills &amp; Vassiliades.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Caloboletus_polygonius</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caloboletus_polygonius</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Caloboletus polygonius a pour synonymes :
 Boletus calopus f. ereticulatus Estadès &amp; Lannoy
 Boletus polygonius A.E.Hills &amp; Vassiliades
 Caloboletus calopus f. ereticulatus (Estadès &amp; Lannoy) Blanco-Dios
 Caloboletus ereticulatus (Estadès &amp; Lannoy) Chapon &amp; P.Roux
-Caloboletus polygonius var. ereticulatus (Estadès &amp; Lannoy) Chapon &amp; P.Roux
-Phylogénie
-L'espèce était tout d'abord connue comme une forme de C. calopus ; Caloboletus calopus f. ereticulatus, une forme sans réseau, avant que la biologie moléculaire ne lui confère son rang d'espèce.
-Étymologie
-L'épithète spécifique polygonius fait référence aux écailles polygonales se formant sur le chapeau de cette espèce, décrites dans la publication originale. Cependant, ce critère s'est révélé ne pas être si typique de l'espèce, et était plutôt dû à un craquèlement de la cuticule dépendant des conditions de pousse, ce qui peut arriver chez plusieurs espèces de bolets.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Caloboletus_polygonius</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Caloboletus_polygonius</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Caloboletus polygonius sont les suivantes :
-Son chapeau est de couleur blanc, crème à brun[3].
-L'hyménophore présente des pores crème jaunâtres à jaunes, puis verdâtres, bleuissant à la pression ou aux blessures[3].
-Son stipe est de couleur rouge, jaune en haut, de forme cylindracée et à la surface ponctuée, sans réseau[3].
-La chair est de couleur blanchâtre, bleuissant légèrement à la coupe. Sa saveur est amère[3].
-</t>
+Caloboletus polygonius var. ereticulatus (Estadès &amp; Lannoy) Chapon &amp; P.Roux</t>
         </is>
       </c>
     </row>
@@ -587,12 +596,125 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce était tout d'abord connue comme une forme de C. calopus ; Caloboletus calopus f. ereticulatus, une forme sans réseau, avant que la biologie moléculaire ne lui confère son rang d'espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Caloboletus_polygonius</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caloboletus_polygonius</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique polygonius fait référence aux écailles polygonales se formant sur le chapeau de cette espèce, décrites dans la publication originale. Cependant, ce critère s'est révélé ne pas être si typique de l'espèce, et était plutôt dû à un craquèlement de la cuticule dépendant des conditions de pousse, ce qui peut arriver chez plusieurs espèces de bolets.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caloboletus_polygonius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caloboletus_polygonius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Caloboletus polygonius sont les suivantes :
+Son chapeau est de couleur blanc, crème à brun.
+L'hyménophore présente des pores crème jaunâtres à jaunes, puis verdâtres, bleuissant à la pression ou aux blessures.
+Son stipe est de couleur rouge, jaune en haut, de forme cylindracée et à la surface ponctuée, sans réseau.
+La chair est de couleur blanchâtre, bleuissant légèrement à la coupe. Sa saveur est amère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caloboletus_polygonius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caloboletus_polygonius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, poussant sous feuillus et sous conifères[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, poussant sous feuillus et sous conifères.
 </t>
         </is>
       </c>
